--- a/error_counts/biodivner/Meta-Llama-3.1-405B-Instruct/random_3_parsed_output/tokens_missed.xlsx
+++ b/error_counts/biodivner/Meta-Llama-3.1-405B-Instruct/random_3_parsed_output/tokens_missed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,12 +3003,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>basal diameter</t>
+          <t>dead wood decomposition</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3018,12 +3018,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>dead wood decomposition</t>
+          <t>mortality</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -3033,12 +3033,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>mortality</t>
+          <t>North American zoo</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -3048,12 +3048,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>North American zoo</t>
+          <t>animals</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -3063,12 +3063,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>animals</t>
+          <t>populations</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -3078,12 +3078,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>populations</t>
+          <t>LÃƒÂ¼neburg Germany</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>LÃƒÂ¼neburg Germany</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Tennenbacher Str</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3123,12 +3123,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Tennenbacher Str</t>
+          <t>herbivory</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -3138,12 +3138,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>herbivory</t>
+          <t>intraspecific trait variability</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -3153,12 +3153,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>intraspecific trait variability</t>
+          <t>soil horizons</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -3168,37 +3168,37 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>soil horizons</t>
+          <t>soil profile</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>soil profile</t>
+          <t>Coarse woody debris</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Coarse woody debris</t>
+          <t>network</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3213,22 +3213,22 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>network</t>
+          <t>Camponotus vitiosus</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Camponotus vitiosus</t>
+          <t>Pristomyrmex punctatus</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3243,7 +3243,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Pristomyrmex punctatus</t>
+          <t>Alticinae</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3258,27 +3258,27 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Alticinae</t>
+          <t>intraspecific trait variation</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>intraspecific trait variation</t>
+          <t>pathogen</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -3288,12 +3288,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>pathogen</t>
+          <t>soil samples</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -3303,12 +3303,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>soil samples</t>
+          <t>Soil profiles</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -3318,12 +3318,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Soil profiles</t>
+          <t>carbon</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -3333,12 +3333,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>structure</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -3348,12 +3348,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>structure</t>
+          <t>Aquaculture Animals</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -3363,12 +3363,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Aquaculture Animals</t>
+          <t>national park</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -3378,12 +3378,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>national park</t>
+          <t>woody</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -3393,12 +3393,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>woody</t>
+          <t>sap-sucking Hemiptera</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>sap-sucking Hemiptera</t>
+          <t>honeydew-collecting ants</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3423,12 +3423,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>honeydew-collecting ants</t>
+          <t>total clay</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>total clay</t>
+          <t>fine sand</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3453,12 +3453,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>fine sand</t>
+          <t>Ant species name</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -3468,12 +3468,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Ant species name</t>
+          <t>herb community</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -3483,12 +3483,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>herb community</t>
+          <t>oil palm</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -3498,12 +3498,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>oil palm</t>
+          <t>distance effect</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>distance effect</t>
+          <t>density effects</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3528,12 +3528,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>density effects</t>
+          <t>Seedling</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -3543,12 +3543,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Seedling</t>
+          <t>garden</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -3558,12 +3558,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>garden</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -3573,12 +3573,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>erosivity</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -3588,12 +3588,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>erosivity</t>
+          <t>humid subtropics</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -3603,12 +3603,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>humid subtropics</t>
+          <t>climate</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -3618,12 +3618,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>climate</t>
+          <t>tree competition index</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -3633,42 +3633,42 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>tree competition index</t>
+          <t>acid</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>acid</t>
+          <t>young</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>conifer plantations</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -3678,12 +3678,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>conifer plantations</t>
+          <t>chemical carbon-based leaf defence traits</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>chemical carbon-based leaf defence traits</t>
+          <t>Scientific plant species name</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Scientific plant species name</t>
+          <t>species composition</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3723,42 +3723,42 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>species composition</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>canopy height</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>canopy height</t>
+          <t>chemical defence trait</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>chemical defence trait</t>
+          <t>Species name</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3798,22 +3798,22 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Species name</t>
+          <t>Animal Species</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Animal Species</t>
+          <t>Herbivore</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3822,18 +3822,18 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Herbivore</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -3843,12 +3843,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Capacity</t>
+          <t>microbes</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -3858,12 +3858,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>microbes</t>
+          <t>Rainfall</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -3873,12 +3873,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Rainfall</t>
+          <t>raindrops</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -3888,42 +3888,42 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>raindrops</t>
+          <t>Woody</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Woody</t>
+          <t>drought</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>drought</t>
+          <t>Island</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -3933,12 +3933,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Island</t>
+          <t>landscape scales</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -3948,12 +3948,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>landscape scales</t>
+          <t>Park</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -3963,12 +3963,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Park</t>
+          <t>Animal</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -3978,27 +3978,27 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Animal</t>
+          <t>mutualistic antÃ¢â‚¬â€œhemipteran interactions</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>mutualistic antÃ¢â‚¬â€œhemipteran interactions</t>
+          <t>leaf chewer herbivory</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -4008,27 +4008,27 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>leaf chewer herbivory</t>
+          <t>shrub position</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>shrub position</t>
+          <t>stratum</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -4038,12 +4038,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>stratum</t>
+          <t>thick layers</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -4053,12 +4053,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>thick layers</t>
+          <t>above ground</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -4068,12 +4068,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>above ground</t>
+          <t>toxicity</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -4083,12 +4083,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>toxicity</t>
+          <t>drought-sensitive species</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -4098,12 +4098,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>drought-sensitive species</t>
+          <t>Leipzig Deutscher Platz 5e Leipzig Germany</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -4113,12 +4113,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Leipzig Deutscher Platz 5e Leipzig Germany</t>
+          <t>bathyal habitat</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -4128,30 +4128,15 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>bathyal habitat</t>
+          <t>Microbial biomass</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>Microbial biomass</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>QUALITY</t>
-        </is>
-      </c>
-      <c r="C248" t="n">
         <v>1</v>
       </c>
     </row>
